--- a/прога 23е.xlsx
+++ b/прога 23е.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Б</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Н</t>
-  </si>
-  <si>
-    <t>равенства</t>
   </si>
 </sst>
 </file>
@@ -71,12 +68,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -100,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -109,6 +124,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -403,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:O7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -434,29 +458,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="B4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -465,16 +489,16 @@
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -482,37 +506,37 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -521,17 +545,24 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1"/>
-    <row r="14" spans="1:7">
-      <c r="F14" t="s">
-        <v>9</v>
+    <row r="8" spans="1:12">
+      <c r="L8">
+        <f>234641*4</f>
+        <v>938564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1"/>
+    <row r="14" spans="1:12">
+      <c r="F14">
+        <f>734641*4</f>
+        <v>2938564</v>
       </c>
     </row>
   </sheetData>
